--- a/public/sample-excel/ExcelUploadSample.xlsx
+++ b/public/sample-excel/ExcelUploadSample.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upload" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,37 +422,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>empNo</t>
+          <t>사번</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>empName</t>
+          <t>성명</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>orgCd</t>
+          <t>조직코드</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>orgNm</t>
+          <t>조직명</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E0001</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,56 +462,56 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORG001</t>
+          <t>D001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>영업1팀</t>
+          <t>디지털개발부</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E0002</t>
+          <t>100002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김철수</t>
+          <t>김영희</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORG002</t>
+          <t>D002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>개발1팀</t>
+          <t>보안기획팀</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E0003</t>
+          <t>100003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이영희</t>
+          <t>이철수</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORG003</t>
+          <t>D003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>기획팀</t>
+          <t>인프라운영팀</t>
         </is>
       </c>
     </row>
